--- a/src/BulbassaurQT6-ETL/Perdas-Duplas-ETL-Desktop-V4/app/assets/planilhas_PLC/Contingências Duplas Analisadas_Rev5_v1.xlsx
+++ b/src/BulbassaurQT6-ETL/Perdas-Duplas-ETL-Desktop-V4/app/assets/planilhas_PLC/Contingências Duplas Analisadas_Rev5_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrovictor.veras\OneDrive - Operador Nacional do Sistema Eletrico\Documentos\ESTAGIO_ONS_PVRV_2025\GitHub\Palkia-PDF-extractor\src\BulbassaurQT6-ETL\Perdas-Duplas-ETL-Desktop-V4\app\assets\planilhas_PLC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onsbr-my.sharepoint.com/personal/pedrovictor_veras_ons_org_br/Documents/Documentos/ESTAGIO_ONS_PVRV_2025/GitHub/Palkia-PDF-extractor/src/BulbassaurQT6-ETL/Perdas-Duplas-ETL-Desktop-V4/app/assets/planilhas_PLC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD86D83-26AF-46DD-8D4F-5AEDC56DFDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{EBD86D83-26AF-46DD-8D4F-5AEDC56DFDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58D368C7-2546-412E-B5B5-EA1D70B5BEA9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2062,7 +2062,7 @@
   <dimension ref="A1:I1048527"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9380,6 +9380,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="f5de6b4b-50fe-42de-9160-f73f9aac4bd7">
@@ -9393,15 +9402,6 @@
     <CentralArquivosTags xmlns="7481862d-7221-4d4e-aaee-e9305d49a4b4" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9716,6 +9716,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90025C13-FE24-4472-823F-52594E4521D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FF2ACE4-B7D4-405E-A755-A6B566F6D921}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9723,14 +9731,6 @@
     <ds:schemaRef ds:uri="f5de6b4b-50fe-42de-9160-f73f9aac4bd7"/>
     <ds:schemaRef ds:uri="7481862d-7221-4d4e-aaee-e9305d49a4b4"/>
     <ds:schemaRef ds:uri="cc97d4cb-9ef9-4c16-9302-76dc037215e5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90025C13-FE24-4472-823F-52594E4521D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
